--- a/customer_data_valid/customer_data_deduped.xlsx
+++ b/customer_data_valid/customer_data_deduped.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+46 73-451 85 21</t>
+          <t>+4673-4518521</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+46 76-967 34 83</t>
+          <t>+4676-9673483</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+46 76-715 67 60</t>
+          <t>+4676-7156760</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+46 76-503 67 61</t>
+          <t>+4676-5036761</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+46 70-597 87 99</t>
+          <t>+4670-5978799</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+46 76-139 25 34</t>
+          <t>+4676-1392534</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+46 72-219 74 25</t>
+          <t>+4672-2197425</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+46 73-105 88 72</t>
+          <t>+4673-1058872</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+46 72-813 72 62</t>
+          <t>+4672-8137262</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+46 70-402 30 20</t>
+          <t>+4670-4023020</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+46 70-146 33 48</t>
+          <t>+4670-1463348</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+46 76-194 58 41</t>
+          <t>+4676-1945841</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+46 76-556 42 42</t>
+          <t>+4676-5564242</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+46 73-957 74 48</t>
+          <t>+4673-9577448</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+46 76-213 10 47</t>
+          <t>+4676-2131047</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+46 76-677 71 48</t>
+          <t>+4676-6777148</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+46 76-645 59 21</t>
+          <t>+4676-6455921</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+46 72-596 74 77</t>
+          <t>+4672-5967477</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+46 72-713 89 25</t>
+          <t>+4672-7138925</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
